--- a/数据整理/stocks/其他/US91324P1021-联合健康集团.xlsx
+++ b/数据整理/stocks/其他/US91324P1021-联合健康集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>486002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>539001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信全球机遇混合QDII</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/US91324P1021-联合健康集团.xlsx
+++ b/数据整理/stocks/其他/US91324P1021-联合健康集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -992,4 +993,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/US91324P1021-联合健康集团.xlsx
+++ b/数据整理/stocks/其他/US91324P1021-联合健康集团.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1001,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,17 +1013,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1032,14 +1053,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>486002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.49</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -1048,14 +1143,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.23</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="4">
@@ -1064,13 +1159,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.21</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/US91324P1021-联合健康集团.xlsx
+++ b/数据整理/stocks/其他/US91324P1021-联合健康集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,17 +1108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.09</v>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1143,14 +1186,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.49</v>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1159,14 +1224,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.23</v>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1175,13 +1262,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>486002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.21</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/US91324P1021-联合健康集团.xlsx
+++ b/数据整理/stocks/其他/US91324P1021-联合健康集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1305,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1316,17 +1317,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1336,14 +1357,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>486002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.37</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -1352,14 +1447,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="4">
@@ -1368,14 +1463,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.49</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="5">
@@ -1384,14 +1479,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.23</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="6">
@@ -1400,13 +1495,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.21</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/US91324P1021-联合健康集团.xlsx
+++ b/数据整理/stocks/其他/US91324P1021-联合健康集团.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>486001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.67</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1122</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>486002</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银全球精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1025</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -639,112 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>486001</t>
+          <t>486002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+          <t>工银全球精选股票(QDII)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>89.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1197</t>
+          <t>0.0857</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>486002</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银全球精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.01</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1081</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>539001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>建信全球机遇混合QDII</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.46</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -758,7 +682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,7 +703,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -809,32 +733,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>486001</t>
+          <t>009562</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.08</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.38</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1262</t>
+          <t>0.0938</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -847,32 +771,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009563</t>
+          <t>486001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.08</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.38</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1262</t>
+          <t>0.0938</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -885,32 +809,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009562</t>
+          <t>009563</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.08</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.38</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1262</t>
+          <t>0.0938</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -933,64 +857,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.71</t>
+          <t>94.60</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1023</t>
+          <t>0.0838</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>539001</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>建信全球机遇混合QDII</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.53</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1119,7 +1005,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1149,32 +1035,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009562</t>
+          <t>486001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>9.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>95.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0938</t>
+          <t>0.1262</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1187,32 +1073,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>486001</t>
+          <t>009563</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>9.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>95.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0938</t>
+          <t>0.1262</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1225,32 +1111,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009563</t>
+          <t>009562</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>9.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>95.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0938</t>
+          <t>0.1262</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1273,26 +1159,64 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0838</t>
+          <t>0.1023</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>539001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信全球机遇混合QDII</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1306,7 +1230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1327,7 +1251,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1357,36 +1281,112 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>486002</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>工银全球精选股票(QDII)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.69</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0857</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>539001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信全球机遇混合QDII</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1400,128 +1400,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.21</v>
+          <t>486002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/US91324P1021-联合健康集团.xlsx
+++ b/数据整理/stocks/其他/US91324P1021-联合健康集团.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.37</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.49</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.23</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -644,31 +661,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银全球精选股票(QDII)</t>
+          <t>工银全球精选股票（QDII）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.69</t>
+          <t>93.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0857</t>
+          <t>0.0833</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -677,6 +694,100 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>486002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -884,7 +995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -978,7 +1089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1224,7 +1335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1394,7 +1505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/US91324P1021-联合健康集团.xlsx
+++ b/数据整理/stocks/其他/US91324P1021-联合健康集团.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +489,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.37</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.49</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.23</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0833</t>
+          <t>0.0823</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -755,31 +772,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银全球精选股票(QDII)</t>
+          <t>工银全球精选股票（QDII）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.69</t>
+          <t>93.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0857</t>
+          <t>0.0833</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -788,6 +805,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>486002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -995,7 +1106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1089,7 +1200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1335,7 +1446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1505,7 +1616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
